--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>8.214755314130446</v>
+        <v>11.89925113703423</v>
       </c>
       <c r="R2">
-        <v>73.93279782717401</v>
+        <v>107.093260233308</v>
       </c>
       <c r="S2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="T2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H3">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I3">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J3">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06691455639155557</v>
+        <v>0.037049785382</v>
       </c>
       <c r="R3">
-        <v>0.6022310075240001</v>
+        <v>0.222298712292</v>
       </c>
       <c r="S3">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="T3">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H4">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I4">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J4">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +694,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>14.10115153012178</v>
+        <v>2.487123060428</v>
       </c>
       <c r="R4">
-        <v>126.910363771096</v>
+        <v>22.384107543852</v>
       </c>
       <c r="S4">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="T4">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H5">
+        <v>95.900486</v>
+      </c>
+      <c r="I5">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J5">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2786473333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.8359420000000001</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>8.907471563090223</v>
+      </c>
+      <c r="R5">
+        <v>80.16724406781201</v>
+      </c>
+      <c r="S5">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="T5">
+        <v>0.3819908715239683</v>
       </c>
     </row>
   </sheetData>
